--- a/assets/Database/Event Database.xlsx
+++ b/assets/Database/Event Database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\social-project\assets\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Social\assets\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836E5EF7-B134-4658-BE1A-048BAE6C97C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D47505-CD35-424D-B497-DC1E0A13827A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5568" xr2:uid="{6414594B-FAB7-4EF1-8457-70C6729C1DBF}"/>
   </bookViews>
@@ -467,14 +467,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="\3\5.\8\2\2\2"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="\3\5.\8\2\2\2"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -787,7 +780,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -836,7 +829,7 @@
         <v>35.803199999999997</v>
       </c>
       <c r="B3" s="5">
-        <f t="shared" ref="B3:B24" si="1">IF(OR(D3=$H$3,D3=$H$4,D3=$H$5,,D3=$H$6,,D3=$H$7),IF(D3=$H$3,-78.6457,(IF(D3=$H$4,-78.6368,(IF(D3=$H$5,-78.7218,(IF(D3=$H$6,-78.6414,(IF(D3=$H$7,-78.742762))))))))),"look up")</f>
+        <f>IF(OR(D3=$H$3,D3=$H$4,D3=$H$5,D3=$H$6,D3=$H$7),IF(D3=$H$3,-78.6457,(IF(D3=$H$4,-78.6368,(IF(D3=$H$5,-78.7218,(IF(D3=$H$6,-78.6414,(IF(D3=$H$7,-78.742762))))))))),"look up")</f>
         <v>-78.645700000000005</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -863,7 +856,7 @@
         <v>35.777200000000001</v>
       </c>
       <c r="B4" s="4">
-        <f t="shared" si="1"/>
+        <f>IF(OR(D4=$H$3,D4=$H$4,D4=$H$5,D4=$H$6,D4=$H$7),IF(D4=$H$3,-78.6457,(IF(D4=$H$4,-78.6368,(IF(D4=$H$5,-78.7218,(IF(D4=$H$6,-78.6414,(IF(D4=$H$7,-78.742762))))))))),"look up")</f>
         <v>-78.636799999999994</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -889,7 +882,7 @@
         <v>35.777200000000001</v>
       </c>
       <c r="B5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B3:B24" si="1">IF(OR(D5=$H$3,D5=$H$4,D5=$H$5,,D5=$H$6,,D5=$H$7),IF(D5=$H$3,-78.6457,(IF(D5=$H$4,-78.6368,(IF(D5=$H$5,-78.7218,(IF(D5=$H$6,-78.6414,(IF(D5=$H$7,-78.742762))))))))),"look up")</f>
         <v>-78.636799999999994</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -941,7 +934,7 @@
         <v>35.777200000000001</v>
       </c>
       <c r="B7" s="4">
-        <f t="shared" si="1"/>
+        <f>IF(OR(D7=$H$3,D7=$H$4,D7=$H$5,D7=$H$6,D7=$H$7),IF(D7=$H$3,-78.6457,(IF(D7=$H$4,-78.6368,(IF(D7=$H$5,-78.7218,(IF(D7=$H$6,-78.6414,(IF(D7=$H$7,-78.742762))))))))),"look up")</f>
         <v>-78.636799999999994</v>
       </c>
       <c r="C7" s="4" t="s">

--- a/assets/Database/Event Database.xlsx
+++ b/assets/Database/Event Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Social\assets\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D47505-CD35-424D-B497-DC1E0A13827A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4607BB58-B7D8-46EC-BF3A-C700C074D805}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5568" xr2:uid="{6414594B-FAB7-4EF1-8457-70C6729C1DBF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Location</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Google Map Source</t>
+  </si>
+  <si>
+    <t>Cary Pub</t>
   </si>
 </sst>
 </file>
@@ -780,7 +783,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,7 +885,7 @@
         <v>35.777200000000001</v>
       </c>
       <c r="B5" s="4">
-        <f t="shared" ref="B3:B24" si="1">IF(OR(D5=$H$3,D5=$H$4,D5=$H$5,,D5=$H$6,,D5=$H$7),IF(D5=$H$3,-78.6457,(IF(D5=$H$4,-78.6368,(IF(D5=$H$5,-78.7218,(IF(D5=$H$6,-78.6414,(IF(D5=$H$7,-78.742762))))))))),"look up")</f>
+        <f t="shared" ref="B5:B24" si="1">IF(OR(D5=$H$3,D5=$H$4,D5=$H$5,,D5=$H$6,,D5=$H$7),IF(D5=$H$3,-78.6457,(IF(D5=$H$4,-78.6368,(IF(D5=$H$5,-78.7218,(IF(D5=$H$6,-78.6414,(IF(D5=$H$7,-78.742762))))))))),"look up")</f>
         <v>-78.636799999999994</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -967,7 +970,9 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="10"/>
-      <c r="H8" s="16"/>
+      <c r="H8" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">

--- a/assets/Database/Event Database.xlsx
+++ b/assets/Database/Event Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Social\assets\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB90E67-FA59-46AB-A8DF-82ACC3A28C0E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E69B1E-F17C-4BE1-B548-73184CB0054A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5568" xr2:uid="{6414594B-FAB7-4EF1-8457-70C6729C1DBF}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>MUSIC</t>
   </si>
   <si>
-    <t>90's Karaoke</t>
-  </si>
-  <si>
     <t>Proof Five Points</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>Day Party: John Howie, Jr &amp; the Rosewood Bluff</t>
+  </si>
+  <si>
+    <t>Seth Rosenbloom</t>
   </si>
 </sst>
 </file>
@@ -74,7 +74,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -269,7 +269,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -279,22 +278,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -612,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D858D0-F6BB-4CE5-B8E4-D33FD7E8E913}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,212 +623,203 @@
     <col min="1" max="1" width="29.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.77734375" customWidth="1"/>
     <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" style="7" customWidth="1"/>
     <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="9">
+        <v>43481</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D4" s="10">
         <v>43461</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8">
-        <v>43461</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="D5" s="10">
+        <v>43462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="8">
-        <v>43462</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="D6" s="10">
+        <v>43463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="8">
-        <v>43463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="D7" s="10">
         <v>43464</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="8"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="8"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="8"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="8"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="8"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="8"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="8"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="8"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="8"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="8"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="8"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="8"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="8"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="8"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="8"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D28" s="2"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/Database/Event Database.xlsx
+++ b/assets/Database/Event Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Social\assets\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E69B1E-F17C-4BE1-B548-73184CB0054A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960B6B9B-D54C-4393-AE3A-DD0B826140D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5568" xr2:uid="{6414594B-FAB7-4EF1-8457-70C6729C1DBF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="26">
   <si>
     <t>Location</t>
   </si>
@@ -51,22 +51,64 @@
     <t>Proof Five Points</t>
   </si>
   <si>
-    <t>Local Band Local Beer</t>
-  </si>
-  <si>
     <t>The Pour House</t>
   </si>
   <si>
-    <t>Kate Rhudy w/ Libby Rodenbough</t>
+    <t>Seth Rosenbloom</t>
   </si>
   <si>
-    <t>Lowbrow w/ Steamroom Etiquette</t>
+    <t>Trivia Night</t>
   </si>
   <si>
-    <t>Day Party: John Howie, Jr &amp; the Rosewood Bluff</t>
+    <t>Cary Pub</t>
   </si>
   <si>
-    <t>Seth Rosenbloom</t>
+    <t>GAMES</t>
+  </si>
+  <si>
+    <t>Family Feud Night</t>
+  </si>
+  <si>
+    <t>Louis York &amp; the Shindellas</t>
+  </si>
+  <si>
+    <t>Tom Waits Tribute Band</t>
+  </si>
+  <si>
+    <t>Lincoln Durham</t>
+  </si>
+  <si>
+    <t>Josh Christina w/Hawkins King</t>
+  </si>
+  <si>
+    <t>Karaoke for the 99 &amp; 2000's</t>
+  </si>
+  <si>
+    <t>Boat Show</t>
+  </si>
+  <si>
+    <t>Raleigh Convention Center</t>
+  </si>
+  <si>
+    <t>ART</t>
+  </si>
+  <si>
+    <t>Raleigh Home Show</t>
+  </si>
+  <si>
+    <t>MLK Dreamfest Concert</t>
+  </si>
+  <si>
+    <t>Cary Arts Center</t>
+  </si>
+  <si>
+    <t>Board Game Night</t>
+  </si>
+  <si>
+    <t>East Coast Gaming</t>
+  </si>
+  <si>
+    <t>Ravnica Allegiance Prerelease</t>
   </si>
 </sst>
 </file>
@@ -74,7 +116,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -135,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -259,12 +301,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -281,20 +381,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -612,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D858D0-F6BB-4CE5-B8E4-D33FD7E8E913}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,13 +735,13 @@
     <col min="1" max="1" width="29.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.77734375" customWidth="1"/>
     <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" style="6" customWidth="1"/>
     <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -638,188 +750,1972 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
+      <c r="A3" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>43481</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="10">
-        <v>43461</v>
+      <c r="D4" s="9">
+        <v>43483</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>8</v>
+      <c r="A5" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="10">
-        <v>43462</v>
+      <c r="D5" s="9">
+        <v>43484</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
+      <c r="A6" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="10">
-        <v>43463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
+      <c r="D6" s="9">
+        <v>43485</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="10">
-        <v>43464</v>
+      <c r="D7" s="9">
+        <v>43486</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="A8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="9">
+        <v>43481</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="10"/>
+      <c r="A9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="9">
+        <v>43488</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="10"/>
+      <c r="A10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="9">
+        <v>43495</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="10"/>
+      <c r="A11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="9">
+        <v>43502</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="10"/>
+      <c r="A12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="9">
+        <v>43509</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="10"/>
+      <c r="A13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="9">
+        <v>43516</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="10"/>
+      <c r="A14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="9">
+        <v>43523</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="10"/>
+      <c r="A15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="9">
+        <v>43530</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="10"/>
+      <c r="A16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="9">
+        <v>43537</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="10"/>
+      <c r="A17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="9">
+        <v>43544</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="10"/>
+      <c r="A18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="9">
+        <v>43551</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="10"/>
+      <c r="A19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="9">
+        <v>43487</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="10"/>
+      <c r="A20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="9">
+        <v>43494</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="10"/>
+      <c r="A21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="9">
+        <v>43501</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="10"/>
+      <c r="A22" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="9">
+        <v>43508</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="10"/>
+      <c r="A23" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="9">
+        <v>43515</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="11"/>
+      <c r="A24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="9">
+        <v>43522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="9">
+        <v>43482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="9">
+        <v>43488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="9">
+        <v>43504</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="9">
+        <v>43505</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="9">
+        <v>43506</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="9">
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="9">
+        <v>43512</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="9">
+        <v>43513</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="9">
+        <v>43483</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="9">
+        <v>43484</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="9">
+        <v>43482</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="9">
+        <v>43489</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="9">
+        <v>43484</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="9">
+        <v>43485</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="13"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="13"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="13"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="13"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="13"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="13"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="13"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="13"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="13"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="13"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="13"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="13"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="13"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="13"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="13"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="13"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="13"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="13"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="13"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="13"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="13"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="13"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="9"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="13"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="9"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="13"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="13"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="13"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="9"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="13"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="9"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="13"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="9"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="13"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="9"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="13"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="9"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="13"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="13"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="9"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="13"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="9"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="13"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="9"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="13"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="9"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="13"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="9"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="13"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="9"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="13"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="9"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="13"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="9"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="13"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="9"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="13"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="9"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="13"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="9"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="13"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="9"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="13"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="9"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="13"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="9"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="13"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="9"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="13"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="9"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="13"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="9"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="13"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="9"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="13"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="9"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="13"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="9"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="13"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="9"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="13"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="9"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="13"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="9"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="13"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="9"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="13"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="9"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="13"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="9"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="13"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="9"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="13"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="9"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="13"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="9"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="13"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="9"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="13"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="9"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="13"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="9"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="13"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="9"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="13"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="9"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="13"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="9"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="13"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="9"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="13"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="9"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="13"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="9"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="13"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="9"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="13"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="9"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="13"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="9"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="13"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="9"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="13"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="9"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="13"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="9"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="13"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="9"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="13"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="9"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="13"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="9"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="13"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="9"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="13"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="9"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="13"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="9"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="13"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="9"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="13"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="9"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="13"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="9"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="13"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="9"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="13"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="9"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="13"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="9"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="13"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="9"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="13"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="9"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="13"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="9"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="13"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="9"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="13"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="9"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="13"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="9"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="13"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="9"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="13"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="9"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="13"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="9"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="13"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="9"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="13"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="9"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="13"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="9"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="13"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="9"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="13"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="9"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="13"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="9"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="13"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="9"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="13"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="9"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="13"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="9"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="13"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="9"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="13"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="9"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="13"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="9"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="13"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="9"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="13"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="9"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="13"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="9"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="13"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="9"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="13"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="9"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="13"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="9"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="13"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="9"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="13"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="9"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="13"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="9"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="13"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="9"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="13"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="9"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="13"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="9"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="13"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="9"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="13"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="9"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="13"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="9"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="13"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="9"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="13"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="9"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="13"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="9"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="13"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="9"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="13"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="9"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="13"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="9"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="13"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="9"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="13"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="9"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="13"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="9"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="13"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="9"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="13"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="9"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="13"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="9"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="13"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="9"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="13"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="9"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="13"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="9"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="13"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="9"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="13"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="9"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="13"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="9"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="13"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="9"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="13"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="9"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="13"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="9"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="13"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="9"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="13"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="9"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="13"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="9"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="13"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="9"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" s="13"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="9"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" s="13"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="9"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="13"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="9"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="13"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="9"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="13"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="9"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="13"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="9"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" s="13"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="9"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" s="13"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="9"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="13"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="9"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="13"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="9"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="13"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="9"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="13"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="9"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="13"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="9"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="13"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="9"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="13"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="9"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="13"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="9"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" s="13"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="9"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" s="13"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="9"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" s="13"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="9"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" s="13"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="9"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" s="13"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="9"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" s="13"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="9"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" s="13"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="9"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" s="13"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="9"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="13"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="9"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" s="13"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="9"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" s="13"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="9"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" s="13"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="9"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" s="13"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="9"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" s="13"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="9"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" s="13"/>
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="9"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" s="13"/>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="9"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" s="13"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="9"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" s="13"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="9"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" s="13"/>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="9"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" s="13"/>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="9"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" s="13"/>
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="9"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" s="13"/>
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="9"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" s="13"/>
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="9"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" s="13"/>
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="9"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="13"/>
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="9"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="13"/>
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="9"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="13"/>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="9"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" s="13"/>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="9"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" s="13"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="9"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" s="13"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="9"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" s="13"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="9"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" s="13"/>
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="9"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" s="13"/>
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="9"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" s="13"/>
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="9"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" s="13"/>
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="9"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" s="13"/>
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="9"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" s="13"/>
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="9"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" s="13"/>
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="9"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" s="13"/>
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="9"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" s="13"/>
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="9"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" s="13"/>
+      <c r="B243" s="2"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="9"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" s="13"/>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="9"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" s="13"/>
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="9"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" s="13"/>
+      <c r="B246" s="2"/>
+      <c r="C246" s="2"/>
+      <c r="D246" s="9"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" s="13"/>
+      <c r="B247" s="2"/>
+      <c r="C247" s="2"/>
+      <c r="D247" s="9"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" s="13"/>
+      <c r="B248" s="2"/>
+      <c r="C248" s="2"/>
+      <c r="D248" s="9"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" s="13"/>
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="9"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" s="13"/>
+      <c r="B250" s="2"/>
+      <c r="C250" s="2"/>
+      <c r="D250" s="9"/>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" s="13"/>
+      <c r="B251" s="2"/>
+      <c r="C251" s="2"/>
+      <c r="D251" s="9"/>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" s="13"/>
+      <c r="B252" s="2"/>
+      <c r="C252" s="2"/>
+      <c r="D252" s="9"/>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" s="13"/>
+      <c r="B253" s="2"/>
+      <c r="C253" s="2"/>
+      <c r="D253" s="9"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" s="13"/>
+      <c r="B254" s="2"/>
+      <c r="C254" s="2"/>
+      <c r="D254" s="9"/>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" s="13"/>
+      <c r="B255" s="2"/>
+      <c r="C255" s="2"/>
+      <c r="D255" s="9"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" s="13"/>
+      <c r="B256" s="2"/>
+      <c r="C256" s="2"/>
+      <c r="D256" s="9"/>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" s="13"/>
+      <c r="B257" s="2"/>
+      <c r="C257" s="2"/>
+      <c r="D257" s="9"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" s="13"/>
+      <c r="B258" s="2"/>
+      <c r="C258" s="2"/>
+      <c r="D258" s="9"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" s="13"/>
+      <c r="B259" s="2"/>
+      <c r="C259" s="2"/>
+      <c r="D259" s="9"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" s="13"/>
+      <c r="B260" s="2"/>
+      <c r="C260" s="2"/>
+      <c r="D260" s="9"/>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" s="13"/>
+      <c r="B261" s="2"/>
+      <c r="C261" s="2"/>
+      <c r="D261" s="9"/>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" s="13"/>
+      <c r="B262" s="2"/>
+      <c r="C262" s="2"/>
+      <c r="D262" s="9"/>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" s="13"/>
+      <c r="B263" s="2"/>
+      <c r="C263" s="2"/>
+      <c r="D263" s="9"/>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" s="13"/>
+      <c r="B264" s="2"/>
+      <c r="C264" s="2"/>
+      <c r="D264" s="9"/>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" s="13"/>
+      <c r="B265" s="2"/>
+      <c r="C265" s="2"/>
+      <c r="D265" s="9"/>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" s="13"/>
+      <c r="B266" s="2"/>
+      <c r="C266" s="2"/>
+      <c r="D266" s="9"/>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" s="13"/>
+      <c r="B267" s="2"/>
+      <c r="C267" s="2"/>
+      <c r="D267" s="9"/>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" s="13"/>
+      <c r="B268" s="2"/>
+      <c r="C268" s="2"/>
+      <c r="D268" s="9"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" s="13"/>
+      <c r="B269" s="2"/>
+      <c r="C269" s="2"/>
+      <c r="D269" s="9"/>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" s="13"/>
+      <c r="B270" s="2"/>
+      <c r="C270" s="2"/>
+      <c r="D270" s="9"/>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" s="13"/>
+      <c r="B271" s="2"/>
+      <c r="C271" s="2"/>
+      <c r="D271" s="9"/>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" s="13"/>
+      <c r="B272" s="2"/>
+      <c r="C272" s="2"/>
+      <c r="D272" s="9"/>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" s="13"/>
+      <c r="B273" s="2"/>
+      <c r="C273" s="2"/>
+      <c r="D273" s="9"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" s="13"/>
+      <c r="B274" s="2"/>
+      <c r="C274" s="2"/>
+      <c r="D274" s="9"/>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" s="13"/>
+      <c r="B275" s="2"/>
+      <c r="C275" s="2"/>
+      <c r="D275" s="9"/>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" s="13"/>
+      <c r="B276" s="2"/>
+      <c r="C276" s="2"/>
+      <c r="D276" s="9"/>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" s="13"/>
+      <c r="B277" s="2"/>
+      <c r="C277" s="2"/>
+      <c r="D277" s="9"/>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" s="13"/>
+      <c r="B278" s="2"/>
+      <c r="C278" s="2"/>
+      <c r="D278" s="9"/>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" s="13"/>
+      <c r="B279" s="2"/>
+      <c r="C279" s="2"/>
+      <c r="D279" s="9"/>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" s="13"/>
+      <c r="B280" s="2"/>
+      <c r="C280" s="2"/>
+      <c r="D280" s="9"/>
+    </row>
+    <row r="281" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A281" s="15"/>
+      <c r="B281" s="5"/>
+      <c r="C281" s="5"/>
+      <c r="D281" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/Database/Event Database.xlsx
+++ b/assets/Database/Event Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Social\assets\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960B6B9B-D54C-4393-AE3A-DD0B826140D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B9FCAB-9773-4254-9A31-87D8D634374F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5568" xr2:uid="{6414594B-FAB7-4EF1-8457-70C6729C1DBF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="30">
   <si>
     <t>Location</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>Ravnica Allegiance Prerelease</t>
+  </si>
+  <si>
+    <t>Duke Basketball (vs Virginia)</t>
+  </si>
+  <si>
+    <t>Cameron Indoor Stadium</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>SCIENCE</t>
   </si>
 </sst>
 </file>
@@ -726,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D858D0-F6BB-4CE5-B8E4-D33FD7E8E913}">
   <dimension ref="A1:F281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1099,7 +1111,7 @@
         <v>18</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D27" s="9">
         <v>43504</v>
@@ -1113,7 +1125,7 @@
         <v>18</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D28" s="9">
         <v>43505</v>
@@ -1127,7 +1139,7 @@
         <v>18</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D29" s="9">
         <v>43506</v>
@@ -1260,10 +1272,18 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="9"/>
+      <c r="A39" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="9">
+        <v>43484</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="13"/>
